--- a/data/unchecked/manual_collect/china/jiangxi/jiangxiCaseStatistics_20200329.xlsx
+++ b/data/unchecked/manual_collect/china/jiangxi/jiangxiCaseStatistics_20200329.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\jiangxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C8684B-07D1-4C0B-8474-D6470A33A46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5CE56A-5307-4DCF-A414-D7917A81A08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10933,8 +10933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.5" customHeight="1"/>
@@ -12125,7 +12125,9 @@
       <c r="H15" s="20"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="K15" s="19">
+        <v>1</v>
+      </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19">
         <v>2</v>
